--- a/2025-1/CABD 2025-1.xlsx
+++ b/2025-1/CABD 2025-1.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\cabd\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F6651-6B8E-43F8-A2CA-0E6B5212152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5655" windowHeight="6810"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-1'!$A$1:$G$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>CODIGO</t>
   </si>
@@ -172,12 +189,21 @@
   </si>
   <si>
     <t>miguel_ang.victoria@uao.edu.co</t>
+  </si>
+  <si>
+    <t>CARABALI TEGUE</t>
+  </si>
+  <si>
+    <t>santiago.carabali@uao.edu.co</t>
+  </si>
+  <si>
+    <t>Minutos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,52 +681,61 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,22 +1012,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,263 +1046,452 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2200833</v>
+        <v>2211671</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2/F2</f>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2216295</v>
+        <v>2215280</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H17" si="0">G3/F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2205127</v>
+        <v>2211352</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <f>12+15+26</f>
+        <v>53</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8833333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2210177</v>
+        <v>2201757</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2201757</v>
+        <v>2210177</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2175459</v>
+        <v>2210261</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2210005</v>
+        <v>2200689</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2211671</v>
+        <v>2200833</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2210261</v>
+        <v>2205127</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2200689</v>
+        <v>2175459</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2206464</v>
+        <v>2216295</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1">
+        <v>54</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2210166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2215280</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
       <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2210166</v>
+        <v>2210005</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1">
+        <v>58</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2211352</v>
+        <v>2210955</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2210955</v>
+        <v>2170311</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2206464</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1">
+        <v>60</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2025-1/CABD 2025-1.xlsx
+++ b/2025-1/CABD 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\cabd\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F6651-6B8E-43F8-A2CA-0E6B5212152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2671A177-6E19-44EC-8547-585EE2406723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2025-1/CABD 2025-1.xlsx
+++ b/2025-1/CABD 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\cabd\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2671A177-6E19-44EC-8547-585EE2406723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7201EDE-8BCA-4B82-9486-FC55DC97C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,19 +1055,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2211671</v>
+        <v>2200833</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>60</v>
@@ -1082,84 +1082,83 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2215280</v>
+        <v>2216295</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>60</v>
       </c>
       <c r="G3" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H17" si="0">G3/F3</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2211352</v>
+        <v>2205127</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>60</v>
       </c>
       <c r="G4" s="1">
-        <f>12+15+26</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>0.8833333333333333</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2201757</v>
+        <v>2170311</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
         <v>60</v>
       </c>
       <c r="G5" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,19 +1190,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2210261</v>
+        <v>2201757</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1">
         <v>60</v>
@@ -1218,46 +1217,46 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2200689</v>
+        <v>2175459</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
         <v>60</v>
       </c>
       <c r="G8" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2200833</v>
+        <v>2210005</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1">
         <v>60</v>
@@ -1272,224 +1271,225 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2205127</v>
+        <v>2211671</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>60</v>
       </c>
       <c r="G10" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98333333333333328</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2175459</v>
+        <v>2210261</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1">
         <v>60</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2216295</v>
+        <v>2200689</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1">
         <v>60</v>
       </c>
       <c r="G12" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2210166</v>
+        <v>2206464</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <v>60</v>
       </c>
       <c r="G13" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2210005</v>
+        <v>2215280</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>60</v>
       </c>
       <c r="G14" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2210955</v>
+        <v>2210166</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>60</v>
       </c>
       <c r="G15" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2170311</v>
+        <v>2211352</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1">
         <v>60</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <f>12+15+26</f>
+        <v>53</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2206464</v>
+        <v>2210955</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1">
         <v>60</v>
       </c>
       <c r="G17" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
